--- a/data/cluster_annotations/others_ambientRNAremoval_21.03.24.xlsx
+++ b/data/cluster_annotations/others_ambientRNAremoval_21.03.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melanie\Documents\MCRI computer\CF project Shiv PhD\CZI application\n=40 CITEseq\New subclustering - March 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksimovicjovana/Work/Projects/MCRI/melanie.neeland/paed-inflammation-CITEseq/data/cluster_annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60746E-45FF-414F-BCFB-3D2CCDFEF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CEC0CC-EB3A-4C47-8CBA-87036A3FBDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{118F4D04-DBDD-48A2-B93E-A0E9387D109B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{118F4D04-DBDD-48A2-B93E-A0E9387D109B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Cluster</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>ciliated epithelial cells</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>epithelial cells</t>
+  </si>
+  <si>
+    <t>DC cells</t>
+  </si>
+  <si>
+    <t>neutrophils</t>
   </si>
 </sst>
 </file>
@@ -205,10 +217,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,30 +534,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E013E5-0F80-4451-BF8E-3D66F714F424}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -554,13 +566,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -568,13 +583,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -582,27 +600,33 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -610,13 +634,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -624,13 +651,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -638,13 +668,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -652,13 +685,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -666,13 +702,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -680,13 +719,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -694,13 +736,16 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -708,13 +753,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -722,13 +770,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -736,13 +787,16 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -750,13 +804,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -764,10 +821,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -775,13 +835,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -789,13 +852,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -803,9 +869,12 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
     </row>

--- a/data/cluster_annotations/others_ambientRNAremoval_21.03.24.xlsx
+++ b/data/cluster_annotations/others_ambientRNAremoval_21.03.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksimovicjovana/Work/Projects/MCRI/melanie.neeland/paed-inflammation-CITEseq/data/cluster_annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petermacvic-my.sharepoint.com/personal/jovana_maksimovic_petermac_org/Documents/Work/Projects/MCRI/melanie.neeland/paed-inflammation-CITEseq/data/cluster_annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CEC0CC-EB3A-4C47-8CBA-87036A3FBDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{74CEC0CC-EB3A-4C47-8CBA-87036A3FBDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95EF1A22-3587-A84E-91C6-82E2F12154BC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{118F4D04-DBDD-48A2-B93E-A0E9387D109B}"/>
+    <workbookView xWindow="34160" yWindow="3780" windowWidth="23260" windowHeight="12580" xr2:uid="{118F4D04-DBDD-48A2-B93E-A0E9387D109B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>Cluster</t>
   </si>
   <si>
-    <t>Annotation</t>
-  </si>
-  <si>
     <t>Relevant marker genes</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>ciliated epithelial cells</t>
   </si>
   <si>
-    <t>Broad</t>
-  </si>
-  <si>
     <t>epithelial cells</t>
   </si>
   <si>
@@ -174,6 +168,15 @@
   </si>
   <si>
     <t>neutrophils</t>
+  </si>
+  <si>
+    <t>ann_level_1</t>
+  </si>
+  <si>
+    <t>ann_level_2</t>
+  </si>
+  <si>
+    <t>ann_level_3</t>
   </si>
 </sst>
 </file>
@@ -534,348 +537,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E013E5-0F80-4451-BF8E-3D66F714F424}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="74.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
+      <c r="F20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
